--- a/scripts/my_portfolio.xlsx
+++ b/scripts/my_portfolio.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,117 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>初始持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海螺水泥</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2328</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2323</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>基本面不利</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6232</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6227</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>止损</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF链接A</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4126.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.6256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6708.217215999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6674.677215999999</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>止损</t>
         </is>
       </c>
     </row>
@@ -751,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,13 +929,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16000</v>
+        <v>31224.677216</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>16000</v>
+        <v>31224.677216</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -845,7 +956,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-13</t>
         </is>
       </c>
     </row>
@@ -856,13 +967,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16506.42</v>
+        <v>12379.81</v>
       </c>
       <c r="C3" t="n">
         <v>1.697010869565217</v>
       </c>
       <c r="D3" t="n">
-        <v>28011.57415760869</v>
+        <v>21008.67213315217</v>
       </c>
       <c r="E3" t="n">
         <v>1.6237</v>
@@ -883,7 +994,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-13</t>
         </is>
       </c>
     </row>
@@ -996,82 +1107,6 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>立讯精密</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>69.45458449645695</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6945.458449645695</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6469</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-476.4584496456946</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-6.86</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>海螺水泥</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.39075249320036</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2339.075249320036</v>
-      </c>
-      <c r="E8" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2322</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-17.07524932003616</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>2025-10-08</t>
         </is>

--- a/scripts/my_portfolio.xlsx
+++ b/scripts/my_portfolio.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -850,6 +850,204 @@
           <t>止损</t>
         </is>
       </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>有色etf</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1626.8</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>芯片etf</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4405</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>科创50</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2303</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>芯片etf</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1582.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1587.5</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>科创50</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1497</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1502</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>稀土etf</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>800</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1084</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1089</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -862,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,19 +1127,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31224.677216</v>
+        <v>18711.377216</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>31224.677216</v>
+        <v>18711.377216</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>16000</v>
+        <v>18711.377216</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -951,12 +1149,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -976,25 +1174,25 @@
         <v>21008.67213315217</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6237</v>
+        <v>1.6741</v>
       </c>
       <c r="F3" t="n">
-        <v>26801.474154</v>
+        <v>20725.039921</v>
       </c>
       <c r="G3" t="n">
-        <v>-1210.100003608695</v>
+        <v>-283.6322121521698</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.32</v>
+        <v>-1.350072057646098</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -1014,25 +1212,25 @@
         <v>3691.523944341373</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0337</v>
+        <v>2.02</v>
       </c>
       <c r="F4" t="n">
-        <v>3979.462812</v>
+        <v>3952.6552</v>
       </c>
       <c r="G4" t="n">
-        <v>287.9388676586273</v>
+        <v>261.1312556586272</v>
       </c>
       <c r="H4" t="n">
-        <v>7.8</v>
+        <v>7.073806362787042</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -1052,25 +1250,25 @@
         <v>2749.106788629327</v>
       </c>
       <c r="E5" t="n">
-        <v>5.5949</v>
+        <v>5.61</v>
       </c>
       <c r="F5" t="n">
-        <v>2930.272926</v>
+        <v>2938.1814</v>
       </c>
       <c r="G5" t="n">
-        <v>181.1661373706729</v>
+        <v>189.0746113706732</v>
       </c>
       <c r="H5" t="n">
-        <v>6.59</v>
+        <v>6.877674310532826</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -1090,25 +1288,177 @@
         <v>7200.233860465118</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1244</v>
+        <v>1.9104</v>
       </c>
       <c r="F6" t="n">
-        <v>8204.666484000001</v>
+        <v>7378.174944</v>
       </c>
       <c r="G6" t="n">
-        <v>1004.432623534884</v>
+        <v>177.9410835348826</v>
       </c>
       <c r="H6" t="n">
-        <v>13.95</v>
+        <v>2.471323667859145</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>有色etf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9037777777777778</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1626.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1616.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-10.39999999999986</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.639291861322834</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>芯片etf</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.089545454545455</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5992.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5720</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-272.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-4.547350855235711</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>科创50</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3805</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3702.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-102.4999999999995</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.693823915900119</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>稀土etf</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.36125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1088.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.01836547291093163</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
